--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3313190.821009488</v>
+        <v>3314951.351312275</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8097816.950671573</v>
+        <v>8097816.950671574</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015063</v>
+        <v>59.80127191868297</v>
       </c>
       <c r="C2" t="n">
         <v>263.7138800015063</v>
@@ -667,10 +667,10 @@
         <v>263.7138800015063</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="F2" t="n">
-        <v>7.155295256393322</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>12.83417464571001</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>21.02847872996093</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>135.0819843927902</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -822,13 +822,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>232.0477154881483</v>
+        <v>220.7993414426854</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015063</v>
+        <v>212.568965117905</v>
       </c>
       <c r="F5" t="n">
-        <v>219.4450108596166</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127.4695742187188</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>12.99870544306834</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1062,10 +1062,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>83.43224246993589</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>2.214688090590434</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>152.1788859874626</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>275.6145600009073</v>
+        <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465056</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348406</v>
+        <v>123.4854171348408</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614505</v>
+        <v>92.8390969161451</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115233</v>
+        <v>20.24979976115247</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>132.602666125637</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>224.0328052099051</v>
+        <v>225.8092543744329</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590396</v>
       </c>
       <c r="I10" t="n">
-        <v>50.34571932180167</v>
+        <v>23.30414408764382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881293</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>103.8784673763408</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,10 +1584,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>244.3165938470681</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,13 +1666,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>261.7047073980816</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>27.02919805176103</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>103.2360561910023</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>41.55695577161151</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444128</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695652</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670954</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>113.6427030833208</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>80.33989744908958</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,10 +2769,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710092</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>1.79977260571614</v>
+        <v>107.4021082756242</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,10 +3480,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>25.7319404949734</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>33.5529348639993</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3754,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695682</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>105.1820732698679</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576151</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574.0438072739749</v>
+        <v>840.1393936243026</v>
       </c>
       <c r="C2" t="n">
-        <v>307.6661507067969</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="D2" t="n">
-        <v>41.28849413961882</v>
+        <v>307.3840804899465</v>
       </c>
       <c r="E2" t="n">
-        <v>41.28849413961882</v>
+        <v>41.00642392276843</v>
       </c>
       <c r="F2" t="n">
         <v>34.06092317356496</v>
@@ -4342,7 +4342,7 @@
         <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O2" t="n">
         <v>888.5149683358417</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="T2" t="n">
-        <v>840.421463841153</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="U2" t="n">
-        <v>840.421463841153</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="V2" t="n">
-        <v>840.421463841153</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="W2" t="n">
-        <v>840.421463841153</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="X2" t="n">
-        <v>840.421463841153</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="Y2" t="n">
-        <v>840.421463841153</v>
+        <v>900.5447187946894</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>216.7910272872687</v>
+        <v>503.7220043479542</v>
       </c>
       <c r="C3" t="n">
-        <v>42.33799800614165</v>
+        <v>329.2689750668272</v>
       </c>
       <c r="D3" t="n">
-        <v>42.33799800614165</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E3" t="n">
-        <v>42.33799800614165</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>42.33799800614165</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>42.33799800614165</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
         <v>21.0971104001205</v>
@@ -4433,28 +4433,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006025</v>
+        <v>808.3837902496286</v>
       </c>
       <c r="V3" t="n">
-        <v>1054.855520006025</v>
+        <v>808.3837902496286</v>
       </c>
       <c r="W3" t="n">
-        <v>800.6181632778234</v>
+        <v>808.3837902496286</v>
       </c>
       <c r="X3" t="n">
-        <v>592.7666630722906</v>
+        <v>671.9373413680223</v>
       </c>
       <c r="Y3" t="n">
-        <v>385.0063643073367</v>
+        <v>671.9373413680223</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.0332933280274</v>
+        <v>650.177417354891</v>
       </c>
       <c r="C4" t="n">
-        <v>21.0971104001205</v>
+        <v>481.2412344269841</v>
       </c>
       <c r="D4" t="n">
-        <v>21.0971104001205</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="E4" t="n">
-        <v>21.0971104001205</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="F4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J4" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
         <v>527.7368878375338</v>
@@ -4527,13 +4527,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W4" t="n">
-        <v>820.4638881998146</v>
+        <v>831.8258821851307</v>
       </c>
       <c r="X4" t="n">
-        <v>592.4743373017973</v>
+        <v>831.8258821851307</v>
       </c>
       <c r="Y4" t="n">
-        <v>371.6817581582671</v>
+        <v>831.8258821851307</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>788.477863438847</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="C5" t="n">
-        <v>522.1002068716689</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D5" t="n">
-        <v>522.1002068716689</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="E5" t="n">
-        <v>255.7225503044908</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356496</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
         <v>21.0971104001205</v>
@@ -4567,22 +4567,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N5" t="n">
         <v>704.5463761991317</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.0971104001205</v>
+        <v>344.4845493424988</v>
       </c>
       <c r="C6" t="n">
-        <v>21.0971104001205</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="D6" t="n">
         <v>21.0971104001205</v>
@@ -4664,34 +4664,34 @@
         <v>813.1187583557301</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1041.725514507976</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>1041.725514507976</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>1041.725514507976</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>1041.725514507976</v>
       </c>
       <c r="V6" t="n">
-        <v>819.7034117742824</v>
+        <v>806.5734062762333</v>
       </c>
       <c r="W6" t="n">
-        <v>565.4660550460808</v>
+        <v>552.3360495480316</v>
       </c>
       <c r="X6" t="n">
-        <v>357.614554840548</v>
+        <v>344.4845493424988</v>
       </c>
       <c r="Y6" t="n">
-        <v>149.854256075594</v>
+        <v>344.4845493424988</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>340.1499327403632</v>
+        <v>650.177417354891</v>
       </c>
       <c r="C7" t="n">
-        <v>171.2137498124562</v>
+        <v>481.2412344269841</v>
       </c>
       <c r="D7" t="n">
-        <v>21.0971104001205</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="E7" t="n">
-        <v>21.0971104001205</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="F7" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G7" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H7" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I7" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
         <v>21.0971104001205</v>
@@ -4734,13 +4734,13 @@
         <v>316.7083726551011</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375339</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227051</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075547</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4764,13 +4764,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>970.5805276121504</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>742.590976714133</v>
+        <v>1052.618461328661</v>
       </c>
       <c r="Y7" t="n">
-        <v>521.7983975706029</v>
+        <v>831.8258821851307</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1853.612173597332</v>
+        <v>1467.012333533201</v>
       </c>
       <c r="C8" t="n">
-        <v>1484.64965665692</v>
+        <v>1098.049816592789</v>
       </c>
       <c r="D8" t="n">
-        <v>1126.383958050169</v>
+        <v>1098.049816592789</v>
       </c>
       <c r="E8" t="n">
-        <v>740.5957054519251</v>
+        <v>944.3337701408066</v>
       </c>
       <c r="F8" t="n">
-        <v>329.6098006623176</v>
+        <v>533.3478653511991</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685571</v>
+        <v>117.6416433428662</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685571</v>
+        <v>117.6416433428662</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685571</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467175</v>
+        <v>187.3702251467165</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607428</v>
+        <v>442.1757437607408</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045938</v>
+        <v>795.1862829045908</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995228</v>
+        <v>1219.647962995223</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209586</v>
+        <v>1655.59168520958</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940598</v>
+        <v>2053.905718940591</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.3565305502</v>
+        <v>2359.356530550192</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661166</v>
+        <v>2540.564622661158</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342786</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762138</v>
+        <v>2435.830015762129</v>
       </c>
       <c r="T8" t="n">
-        <v>2227.077931858411</v>
+        <v>2227.077931858402</v>
       </c>
       <c r="U8" t="n">
-        <v>2227.077931858411</v>
+        <v>2227.077931858402</v>
       </c>
       <c r="V8" t="n">
-        <v>2227.077931858411</v>
+        <v>2227.077931858402</v>
       </c>
       <c r="W8" t="n">
-        <v>2227.077931858411</v>
+        <v>2227.077931858402</v>
       </c>
       <c r="X8" t="n">
-        <v>1853.612173597332</v>
+        <v>1853.612173597322</v>
       </c>
       <c r="Y8" t="n">
-        <v>1853.612173597332</v>
+        <v>1853.612173597322</v>
       </c>
     </row>
     <row r="9">
@@ -4877,43 +4877,43 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993887</v>
+        <v>71.66559839993884</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685571</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507237</v>
+        <v>113.4887579637183</v>
       </c>
       <c r="K9" t="n">
-        <v>684.7364639442758</v>
+        <v>506.4581980381319</v>
       </c>
       <c r="L9" t="n">
-        <v>979.2724473777573</v>
+        <v>800.9941814716126</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.338915852059</v>
+        <v>1164.060649945913</v>
       </c>
       <c r="N9" t="n">
-        <v>1729.423318324629</v>
+        <v>1551.145052418482</v>
       </c>
       <c r="O9" t="n">
-        <v>2061.310128312018</v>
+        <v>1883.03186240587</v>
       </c>
       <c r="P9" t="n">
-        <v>2308.345486741643</v>
+        <v>2445.345361789032</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442628</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342786</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251701</v>
+        <v>2426.620673347184</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.81647768535</v>
+        <v>2232.610870780833</v>
       </c>
       <c r="U9" t="n">
         <v>2004.520714847062</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>715.9213805686156</v>
+        <v>1005.338550605573</v>
       </c>
       <c r="C10" t="n">
-        <v>546.9851976407087</v>
+        <v>836.4023676776661</v>
       </c>
       <c r="D10" t="n">
-        <v>396.868558228373</v>
+        <v>686.2857282653304</v>
       </c>
       <c r="E10" t="n">
-        <v>248.9554646459799</v>
+        <v>538.3726346829372</v>
       </c>
       <c r="F10" t="n">
-        <v>102.0655171480695</v>
+        <v>391.4826871850269</v>
       </c>
       <c r="G10" t="n">
-        <v>102.0655171480695</v>
+        <v>223.4955623247176</v>
       </c>
       <c r="H10" t="n">
-        <v>102.0655171480695</v>
+        <v>74.75079468932404</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685571</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380159</v>
+        <v>76.63468308380118</v>
       </c>
       <c r="K10" t="n">
-        <v>248.250021567657</v>
+        <v>248.2500215676562</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368923</v>
+        <v>523.385004336891</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904039</v>
+        <v>823.8653899904022</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101613</v>
+        <v>1122.635640101611</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931091</v>
+        <v>1382.582027931089</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.4903876165</v>
+        <v>1581.490387616497</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477364</v>
+        <v>1635.76914547736</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477364</v>
+        <v>1635.76914547736</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477364</v>
+        <v>1635.76914547736</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477364</v>
+        <v>1635.76914547736</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477364</v>
+        <v>1635.76914547736</v>
       </c>
       <c r="V10" t="n">
-        <v>1635.769145477364</v>
+        <v>1635.76914547736</v>
       </c>
       <c r="W10" t="n">
-        <v>1346.351975440403</v>
+        <v>1635.76914547736</v>
       </c>
       <c r="X10" t="n">
-        <v>1118.362424542385</v>
+        <v>1407.779594579343</v>
       </c>
       <c r="Y10" t="n">
-        <v>897.5698453988554</v>
+        <v>1186.987015435813</v>
       </c>
     </row>
     <row r="11">
@@ -5032,31 +5032,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
@@ -5068,13 +5068,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5129,13 +5129,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>408.925855915485</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5272,22 +5272,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5299,25 +5299,25 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5366,7 +5366,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
         <v>2001.151557821488</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>721.7774158311364</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>552.8412329032295</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>903.4258806613761</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5494,70 +5494,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311174</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075831</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266882</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797176</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5779,16 +5779,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266882</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>277.5052172074016</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>135.7933860495997</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362676</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192639</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6211,28 +6211,28 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6244,10 +6244,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6268,7 +6268,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>802.9288273958734</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C28" t="n">
-        <v>633.9926444679666</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D28" t="n">
-        <v>483.8760050556308</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>483.8760050556308</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>483.8760050556308</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>316.6799057705107</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>174.9680746127088</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304621</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.359422267661</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.369871369643</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.5772922261132</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="29">
@@ -6457,46 +6457,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>842.6091804069454</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1470.207143961552</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O30" t="n">
-        <v>2022.116874200839</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,64 +6688,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>202.303641104158</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="35">
@@ -6916,31 +6916,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192673</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,40 +6949,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,52 +7162,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="D40" t="n">
-        <v>261.0127623330919</v>
+        <v>584.529540471266</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>436.6164468888729</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>436.6164468888729</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>269.4203476037529</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>127.708516445951</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7426,37 +7426,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>747.3737171343192</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>597.2570777219835</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>449.3439841395904</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7642,40 +7642,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8139,13 +8139,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446527</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094458</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
         <v>171.8177168444618</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>97.32166909127244</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127268</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>210.4772158821361</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.8482254012527</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.98618304348527</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.614797267597169e-12</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>63.36835372228708</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>7.821049476759896</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>24.81829093850939</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23898,13 +23898,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>182.9484181982418</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>39.70888054695403</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>119.4047645948081</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>34.97276993489153</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9259388694759707</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.4949402405078</v>
+        <v>32.89260457059964</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>260.4525338942707</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>47.71290145456622</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>40.23897475306332</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>695833.7131767024</v>
+        <v>695833.7131767025</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>695833.7131767024</v>
+        <v>695833.7131767025</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>695833.7131767024</v>
+        <v>695833.7131767025</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>695833.7131767025</v>
+        <v>695833.7131767024</v>
       </c>
     </row>
     <row r="14">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778549</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="G2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="H2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="I2" t="n">
         <v>726431.9397210055</v>
       </c>
       <c r="J2" t="n">
-        <v>726431.9397210057</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="K2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="L2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="M2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="L2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210055</v>
-      </c>
       <c r="N2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="P2" t="n">
         <v>726431.9397210052</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580794</v>
+        <v>390680.0076580772</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606929</v>
+        <v>507909.2320606948</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.695094722106472e-11</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911413</v>
+        <v>68999.15441911404</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101775</v>
+        <v>95270.23779101716</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.975695469</v>
+        <v>132717.9756954695</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>250332.6659748621</v>
       </c>
       <c r="D4" t="n">
-        <v>139261.6527555022</v>
+        <v>139261.6527555029</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678125</v>
       </c>
       <c r="F4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678129</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
+        <v>10557.08828678117</v>
+      </c>
+      <c r="L4" t="n">
+        <v>10557.08828678112</v>
+      </c>
+      <c r="M4" t="n">
         <v>10557.0882867812</v>
       </c>
-      <c r="L4" t="n">
-        <v>10557.08828678125</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
+        <v>10557.0882867812</v>
+      </c>
+      <c r="O4" t="n">
+        <v>10557.08828678112</v>
+      </c>
+      <c r="P4" t="n">
         <v>10557.08828678121</v>
-      </c>
-      <c r="N4" t="n">
-        <v>10557.08828678121</v>
-      </c>
-      <c r="O4" t="n">
-        <v>10557.08828678125</v>
-      </c>
-      <c r="P4" t="n">
-        <v>10557.08828678125</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.867575679</v>
+        <v>92902.86757567883</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-254530.8568924668</v>
+        <v>-254530.8568924663</v>
       </c>
       <c r="C6" t="n">
-        <v>425557.1236987269</v>
+        <v>425557.1236987268</v>
       </c>
       <c r="D6" t="n">
-        <v>116093.0648885943</v>
+        <v>116093.0648885962</v>
       </c>
       <c r="E6" t="n">
-        <v>106495.7102952669</v>
+        <v>106808.3516241866</v>
       </c>
       <c r="F6" t="n">
-        <v>614404.9423559601</v>
+        <v>614717.5836848813</v>
       </c>
       <c r="G6" t="n">
-        <v>614404.9423559604</v>
+        <v>614717.5836848815</v>
       </c>
       <c r="H6" t="n">
-        <v>614404.94235596</v>
+        <v>614717.5836848817</v>
       </c>
       <c r="I6" t="n">
-        <v>614404.9423559603</v>
+        <v>614717.5836848815</v>
       </c>
       <c r="J6" t="n">
-        <v>545405.7879368464</v>
+        <v>545718.4292657673</v>
       </c>
       <c r="K6" t="n">
-        <v>614404.9423559599</v>
+        <v>614717.5836848812</v>
       </c>
       <c r="L6" t="n">
-        <v>519134.7045649424</v>
+        <v>519447.3458938642</v>
       </c>
       <c r="M6" t="n">
-        <v>481686.9666604913</v>
+        <v>481999.6079894116</v>
       </c>
       <c r="N6" t="n">
-        <v>614404.9423559599</v>
+        <v>614717.5836848812</v>
       </c>
       <c r="O6" t="n">
-        <v>614404.9423559601</v>
+        <v>614717.5836848815</v>
       </c>
       <c r="P6" t="n">
-        <v>614404.94235596</v>
+        <v>614717.5836848812</v>
       </c>
     </row>
   </sheetData>
@@ -26706,7 +26706,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.090792417868801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26727,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26743,7 +26743,7 @@
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627834</v>
+        <v>933.7024595627815</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,43 +26792,43 @@
         <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856964</v>
+        <v>640.1406900856941</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933049</v>
+        <v>319.6474457933032</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788906</v>
+        <v>434.2730407788922</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841902</v>
+        <v>376.4268100841879</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139522</v>
+        <v>532.5675980139545</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015065</v>
+        <v>263.713880001506</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.42681008419</v>
+        <v>376.4268100841879</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139522</v>
+        <v>532.5675980139545</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841902</v>
+        <v>376.4268100841879</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139522</v>
+        <v>532.5675980139545</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619743</v>
+        <v>322.9325697447976</v>
       </c>
       <c r="C2" t="n">
         <v>101.5590117695013</v>
@@ -27387,10 +27387,10 @@
         <v>90.9691616191767</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707555</v>
       </c>
       <c r="F2" t="n">
-        <v>399.7207504853181</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
@@ -27463,10 +27463,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,7 +27475,7 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>78.45084154124881</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
         <v>43.92180400150558</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27514,19 +27514,19 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>70.69100081068723</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27542,13 +27542,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
@@ -27560,7 +27560,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>54.47528284844273</v>
+        <v>65.72365689390563</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619743</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695013</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917676</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707555</v>
+        <v>169.3614049543568</v>
       </c>
       <c r="F5" t="n">
-        <v>187.4310348820948</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27694,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.06360943114855</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>5.153819512209328</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27782,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27797,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>203.0907558666551</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>223.4949672984467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>229.7514840847991</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>135.9345997873422</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>301.0334742203005</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465028</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27982,13 +27982,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.776449164536899</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.776449164527776</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>54.47053042129779</v>
+        <v>81.51210565545574</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640953</v>
+        <v>101.5869591640955</v>
       </c>
       <c r="S10" t="n">
         <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271897703044</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-5.076846082015347e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29751,7 +29751,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-1.414067622821307e-12</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30510,13 +30510,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-1.34970715184563e-12</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30750,7 +30750,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885558</v>
+        <v>3.753577726885551</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546673</v>
+        <v>38.44132789546666</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157556</v>
+        <v>144.7098053157553</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972535</v>
+        <v>318.5802175972528</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763193</v>
+        <v>477.4691627763183</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354932</v>
+        <v>592.3427171354921</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359943</v>
+        <v>659.0954050359931</v>
       </c>
       <c r="N8" t="n">
-        <v>669.760257752508</v>
+        <v>669.7602577525066</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307896</v>
+        <v>632.4356192307883</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983023</v>
+        <v>539.7691690983013</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542131</v>
+        <v>405.3441667542123</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864752</v>
+        <v>235.7856768864747</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140475</v>
+        <v>85.53465245140458</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944154</v>
+        <v>16.43128649944151</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508446</v>
+        <v>0.3002862181508441</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00834113943693</v>
+        <v>2.008341139436927</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035141</v>
+        <v>19.39634732035137</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026275</v>
+        <v>69.1468330902626</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079426</v>
+        <v>189.7441951079423</v>
       </c>
       <c r="K9" t="n">
-        <v>324.303051450217</v>
+        <v>324.3030514502163</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571283</v>
+        <v>436.0654741571274</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617169</v>
+        <v>508.8678404617159</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152216</v>
+        <v>522.3360580152206</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519086</v>
+        <v>477.8354464519076</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947591</v>
+        <v>383.5050724947584</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463703</v>
+        <v>256.3629847463698</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204789</v>
+        <v>124.6933209204787</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366401</v>
+        <v>37.30405581366394</v>
       </c>
       <c r="T9" t="n">
-        <v>8.09502415413394</v>
+        <v>8.095024154133924</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419034</v>
+        <v>0.1321277065419031</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.68372574675256</v>
+        <v>1.683725746752557</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840004</v>
+        <v>14.96985254840001</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415882</v>
+        <v>50.63422518415872</v>
       </c>
       <c r="J10" t="n">
-        <v>119.039410295406</v>
+        <v>119.0394102954058</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772519</v>
+        <v>195.6183185772516</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490124</v>
+        <v>250.324098749012</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023126</v>
+        <v>263.9316641023121</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462351</v>
+        <v>257.6559590462346</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046256</v>
+        <v>237.9869810046251</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708732</v>
+        <v>203.6389757708728</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939803</v>
+        <v>140.98907139398</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307418</v>
+        <v>75.70643221307402</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658779</v>
+        <v>29.34274778658773</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942754</v>
+        <v>7.19410091794274</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650338</v>
+        <v>0.0918395861865032</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>446.012731199064</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,25 +32311,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>446.0127311990647</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,25 +32548,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>446.0127311990647</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,46 +32861,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,46 +33098,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>397.6543049213407</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,46 +33335,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,46 +33572,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.015579806724</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,46 +33809,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,46 +34046,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,46 +34283,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,46 +34520,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34859,13 +34859,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966408</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458918</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
         <v>213.581156752698</v>
@@ -35032,10 +35032,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250135</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877691</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705672</v>
+        <v>137.5343130705666</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313387</v>
+        <v>257.3793117313377</v>
       </c>
       <c r="L8" t="n">
-        <v>356.576302165506</v>
+        <v>356.5763021655048</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087216</v>
+        <v>428.7491718087203</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559171</v>
+        <v>440.3471941559157</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091028</v>
+        <v>402.3374078091016</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430328</v>
+        <v>308.5361733430317</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797636</v>
+        <v>183.0384768797628</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234303</v>
+        <v>20.20013907234258</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.9976037816848</v>
+        <v>62.90656844127557</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884366</v>
+        <v>396.9388283579935</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772541</v>
+        <v>297.5110943772532</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396985</v>
+        <v>366.7338065396976</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318883</v>
+        <v>390.9943459318873</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074641</v>
+        <v>335.2392020074632</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804289</v>
+        <v>567.9934337203654</v>
       </c>
       <c r="Q9" t="n">
-        <v>230.2294360616014</v>
+        <v>116.3812106603482</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783579</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873321</v>
+        <v>25.68023017873298</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513691</v>
+        <v>173.3488267513687</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093286</v>
+        <v>277.9141240093281</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641532</v>
+        <v>303.5155410641527</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254637</v>
+        <v>301.7881314254632</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186652</v>
+        <v>262.5721089186648</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357667</v>
+        <v>200.9175350357663</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8270281422859</v>
+        <v>54.82702814228561</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683826</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>303.8786972770457</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396445</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>303.8786972770464</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>303.8786972770464</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>263.6798975070105</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236318053</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
